--- a/Achievement.xlsx
+++ b/Achievement.xlsx
@@ -1057,7 +1057,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,13 +1082,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1565,148 +1558,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2113,7 +2106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2406,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="3">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>

--- a/Achievement.xlsx
+++ b/Achievement.xlsx
@@ -2106,7 +2106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2399,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="3">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>

--- a/Achievement.xlsx
+++ b/Achievement.xlsx
@@ -2106,7 +2106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2399,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="3">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>

--- a/Achievement.xlsx
+++ b/Achievement.xlsx
@@ -2106,7 +2106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2551,7 +2551,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="11">
-        <v>10103</v>
+        <v>10105</v>
       </c>
       <c r="H12" s="11">
         <v>101</v>

--- a/Achievement.xlsx
+++ b/Achievement.xlsx
@@ -2106,7 +2106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2513,7 +2513,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="3">
-        <v>10102</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3">
         <v>101</v>

--- a/Achievement.xlsx
+++ b/Achievement.xlsx
@@ -2106,7 +2106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2551,7 +2551,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="11">
-        <v>10105</v>
+        <v>5</v>
       </c>
       <c r="H12" s="11">
         <v>101</v>
